--- a/data/trans_orig/P16A20_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A20_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AACD2E8-437E-4D9D-9516-B5FCCC564093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{31909DDF-936E-4EBD-837C-9F7D73261658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0B4992D0-0DE6-40A0-BCCD-6A8DE4120A02}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7313D54E-AB0E-48E5-8942-AB9A63164189}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="218">
   <si>
     <t>Población según si ha consumido medicamentos para la alteración del tiroides en 2007 (Tasa respuesta: 49,79%)</t>
   </si>
@@ -395,19 +395,19 @@
     <t>8,79%</t>
   </si>
   <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
   </si>
   <si>
     <t>4,94%</t>
   </si>
   <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
   </si>
   <si>
     <t>98,39%</t>
@@ -416,67 +416,67 @@
     <t>91,21%</t>
   </si>
   <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
   </si>
   <si>
     <t>95,06%</t>
   </si>
   <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
   </si>
   <si>
     <t>1,39%</t>
   </si>
   <si>
-    <t>2,45%</t>
+    <t>2,4%</t>
   </si>
   <si>
     <t>9,0%</t>
   </si>
   <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
   </si>
   <si>
     <t>5,34%</t>
   </si>
   <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
   </si>
   <si>
     <t>98,61%</t>
   </si>
   <si>
-    <t>97,55%</t>
+    <t>97,6%</t>
   </si>
   <si>
     <t>91,0%</t>
   </si>
   <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
   </si>
   <si>
     <t>94,66%</t>
   </si>
   <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
   </si>
   <si>
     <t>1,34%</t>
@@ -485,31 +485,31 @@
     <t>0,74%</t>
   </si>
   <si>
-    <t>2,27%</t>
+    <t>2,21%</t>
   </si>
   <si>
     <t>7,95%</t>
   </si>
   <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
   </si>
   <si>
     <t>4,68%</t>
   </si>
   <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
   </si>
   <si>
     <t>98,66%</t>
   </si>
   <si>
-    <t>97,73%</t>
+    <t>97,79%</t>
   </si>
   <si>
     <t>99,26%</t>
@@ -518,145 +518,154 @@
     <t>92,05%</t>
   </si>
   <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
   </si>
   <si>
     <t>95,32%</t>
   </si>
   <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
   </si>
   <si>
     <t>0,98%</t>
   </si>
   <si>
-    <t>1,87%</t>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
   </si>
   <si>
     <t>19,46%</t>
   </si>
   <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
   </si>
   <si>
     <t>11,06%</t>
   </si>
   <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
   </si>
   <si>
     <t>99,02%</t>
   </si>
   <si>
-    <t>98,13%</t>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
   </si>
   <si>
     <t>80,54%</t>
   </si>
   <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
   </si>
   <si>
     <t>88,94%</t>
   </si>
   <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
   </si>
   <si>
     <t>1,96%</t>
   </si>
   <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
   </si>
   <si>
     <t>8,78%</t>
   </si>
   <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
   </si>
   <si>
     <t>5,66%</t>
   </si>
   <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
   </si>
   <si>
     <t>98,04%</t>
   </si>
   <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
   </si>
   <si>
     <t>91,22%</t>
   </si>
   <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
   </si>
   <si>
     <t>94,34%</t>
   </si>
   <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
+    <t>1,04%</t>
+  </si>
+  <si>
     <t>1,9%</t>
   </si>
   <si>
     <t>11,03%</t>
   </si>
   <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
   </si>
   <si>
     <t>6,5%</t>
   </si>
   <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
   </si>
   <si>
     <t>98,59%</t>
@@ -665,22 +674,25 @@
     <t>98,1%</t>
   </si>
   <si>
+    <t>98,96%</t>
+  </si>
+  <si>
     <t>88,97%</t>
   </si>
   <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
   </si>
   <si>
     <t>93,5%</t>
   </si>
   <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{493193EE-DB06-4E3B-A996-4C8BC97E02CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42CC1BC-DDF2-4355-8A3B-807E3D6E4238}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2155,7 +2167,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D82BAC6-7EDE-4BA5-83FB-E8DAF59D7723}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4148AD1A-897B-4095-BC38-E202A827DA59}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3218,7 +3230,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{647C3770-5664-4059-86E7-95B0639C65AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E065FC-0167-46BF-BBCB-22639EE7D4A8}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4281,7 +4293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{675D4797-9715-42FD-88CC-14A2CFF8A6A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80962FD-0318-4A1D-B20E-ADDB03755CE0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4563,7 +4575,7 @@
         <v>130</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>131</v>
@@ -4617,7 +4629,7 @@
         <v>139</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="H8" s="7">
         <v>904</v>
@@ -4873,10 +4885,10 @@
         <v>164</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H13" s="7">
         <v>91</v>
@@ -4885,13 +4897,13 @@
         <v>169882</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M13" s="7">
         <v>99</v>
@@ -4900,13 +4912,13 @@
         <v>177011</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4921,13 +4933,13 @@
         <v>720572</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="H14" s="7">
         <v>954</v>
@@ -4936,13 +4948,13 @@
         <v>703144</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M14" s="7">
         <v>1621</v>
@@ -4951,13 +4963,13 @@
         <v>1423716</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5025,13 +5037,13 @@
         <v>18893</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H16" s="7">
         <v>145</v>
@@ -5040,13 +5052,13 @@
         <v>100679</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M16" s="7">
         <v>163</v>
@@ -5055,13 +5067,13 @@
         <v>119572</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5076,13 +5088,13 @@
         <v>946510</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H17" s="7">
         <v>1414</v>
@@ -5091,13 +5103,13 @@
         <v>1045624</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M17" s="7">
         <v>2402</v>
@@ -5106,13 +5118,13 @@
         <v>1992134</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5180,13 +5192,13 @@
         <v>47594</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>94</v>
+        <v>201</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H19" s="7">
         <v>488</v>
@@ -5195,13 +5207,13 @@
         <v>419554</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M19" s="7">
         <v>539</v>
@@ -5210,13 +5222,13 @@
         <v>467148</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5231,28 +5243,28 @@
         <v>3336564</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>96</v>
+        <v>211</v>
       </c>
       <c r="H20" s="7">
         <v>4870</v>
       </c>
       <c r="I20" s="7">
-        <v>3382553</v>
+        <v>3382552</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="M20" s="7">
         <v>8194</v>
@@ -5261,13 +5273,13 @@
         <v>6719116</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5294,7 +5306,7 @@
         <v>5358</v>
       </c>
       <c r="I21" s="7">
-        <v>3802107</v>
+        <v>3802106</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/P16A20_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A20_2023-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31909DDF-936E-4EBD-837C-9F7D73261658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50B6F643-2A39-4F0B-817D-7C6A4AF21CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7313D54E-AB0E-48E5-8942-AB9A63164189}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8CDA6273-1651-4F44-A641-70F01D5BBD2F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -107,7 +107,7 @@
     <t>98,21%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,57%</t>
@@ -128,7 +128,7 @@
     <t>99,67%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0,37%</t>
@@ -149,7 +149,7 @@
     <t>99,78%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>0,5%</t>
@@ -299,7 +299,7 @@
     <t>99,93%</t>
   </si>
   <si>
-    <t>Población según si ha consumido medicamentos para la alteración del tiroides en 2015 (Tasa respuesta: 43,19%)</t>
+    <t>Población según si ha consumido medicamentos para la alteración del tiroides en 2016 (Tasa respuesta: 43,19%)</t>
   </si>
   <si>
     <t>3,42%</t>
@@ -1104,7 +1104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42CC1BC-DDF2-4355-8A3B-807E3D6E4238}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB2A27A-E777-4909-A49E-82AB2C2033F5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2167,7 +2167,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4148AD1A-897B-4095-BC38-E202A827DA59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1299B7-3CED-47DC-9BD0-68A2ED4D848F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3230,7 +3230,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E065FC-0167-46BF-BBCB-22639EE7D4A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD7FD72-AE63-472B-B649-67FE68D2F97D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4293,7 +4293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80962FD-0318-4A1D-B20E-ADDB03755CE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D18415B-8293-49E5-833E-239319E1D8E3}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P16A20_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A20_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50B6F643-2A39-4F0B-817D-7C6A4AF21CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A49EC9A5-2953-4ADA-BEFE-C47EB64793EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8CDA6273-1651-4F44-A641-70F01D5BBD2F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2FAE0896-B27B-4C1C-B6C9-9061132C464B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="214">
   <si>
     <t>Población según si ha consumido medicamentos para la alteración del tiroides en 2007 (Tasa respuesta: 49,79%)</t>
   </si>
@@ -395,19 +395,19 @@
     <t>8,79%</t>
   </si>
   <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
   </si>
   <si>
     <t>4,94%</t>
   </si>
   <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
   </si>
   <si>
     <t>98,39%</t>
@@ -416,256 +416,247 @@
     <t>91,21%</t>
   </si>
   <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
   </si>
   <si>
     <t>95,06%</t>
   </si>
   <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
   </si>
   <si>
     <t>1,39%</t>
   </si>
   <si>
-    <t>2,4%</t>
+    <t>2,45%</t>
   </si>
   <si>
     <t>9,0%</t>
   </si>
   <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
     <t>7,3%</t>
   </si>
   <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
   </si>
   <si>
     <t>92,7%</t>
   </si>
   <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
     <t>88,94%</t>
   </si>
   <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
   </si>
   <si>
     <t>1,96%</t>
   </si>
   <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
   </si>
   <si>
     <t>8,78%</t>
   </si>
   <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
   </si>
   <si>
     <t>5,66%</t>
   </si>
   <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
   </si>
   <si>
     <t>98,04%</t>
   </si>
   <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
   </si>
   <si>
     <t>91,22%</t>
   </si>
   <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
   </si>
   <si>
     <t>94,34%</t>
   </si>
   <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>1,04%</t>
-  </si>
-  <si>
     <t>1,9%</t>
   </si>
   <si>
     <t>11,03%</t>
   </si>
   <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
   </si>
   <si>
     <t>6,5%</t>
   </si>
   <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
   </si>
   <si>
     <t>98,59%</t>
@@ -674,25 +665,22 @@
     <t>98,1%</t>
   </si>
   <si>
-    <t>98,96%</t>
-  </si>
-  <si>
     <t>88,97%</t>
   </si>
   <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
   </si>
   <si>
     <t>93,5%</t>
   </si>
   <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
   </si>
 </sst>
 </file>
@@ -1104,7 +1092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB2A27A-E777-4909-A49E-82AB2C2033F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C374378F-F814-488C-AB90-DCBB1A2DEBB5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2167,7 +2155,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1299B7-3CED-47DC-9BD0-68A2ED4D848F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{760D2EE9-E9A2-4894-8EFE-80E1C602DB64}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3230,7 +3218,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD7FD72-AE63-472B-B649-67FE68D2F97D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A458AC-10F8-42A3-8BF5-35AB327F100C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4293,7 +4281,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D18415B-8293-49E5-833E-239319E1D8E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFCDC2A7-27EE-4D30-82A6-D24C3BAAAB4F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4575,7 +4563,7 @@
         <v>130</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>131</v>
@@ -4629,7 +4617,7 @@
         <v>139</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="H8" s="7">
         <v>904</v>
@@ -4885,10 +4873,10 @@
         <v>164</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H13" s="7">
         <v>91</v>
@@ -4897,13 +4885,13 @@
         <v>169882</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M13" s="7">
         <v>99</v>
@@ -4912,13 +4900,13 @@
         <v>177011</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4933,13 +4921,13 @@
         <v>720572</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>174</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>954</v>
@@ -4948,13 +4936,13 @@
         <v>703144</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M14" s="7">
         <v>1621</v>
@@ -4963,13 +4951,13 @@
         <v>1423716</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5037,13 +5025,13 @@
         <v>18893</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H16" s="7">
         <v>145</v>
@@ -5052,13 +5040,13 @@
         <v>100679</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M16" s="7">
         <v>163</v>
@@ -5067,13 +5055,13 @@
         <v>119572</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5088,13 +5076,13 @@
         <v>946510</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H17" s="7">
         <v>1414</v>
@@ -5103,13 +5091,13 @@
         <v>1045624</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M17" s="7">
         <v>2402</v>
@@ -5118,13 +5106,13 @@
         <v>1992134</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5192,13 +5180,13 @@
         <v>47594</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>201</v>
+        <v>94</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H19" s="7">
         <v>488</v>
@@ -5207,13 +5195,13 @@
         <v>419554</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M19" s="7">
         <v>539</v>
@@ -5222,13 +5210,13 @@
         <v>467148</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5243,28 +5231,28 @@
         <v>3336564</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>211</v>
+        <v>96</v>
       </c>
       <c r="H20" s="7">
         <v>4870</v>
       </c>
       <c r="I20" s="7">
-        <v>3382552</v>
+        <v>3382553</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M20" s="7">
         <v>8194</v>
@@ -5273,13 +5261,13 @@
         <v>6719116</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5306,7 +5294,7 @@
         <v>5358</v>
       </c>
       <c r="I21" s="7">
-        <v>3802106</v>
+        <v>3802107</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/P16A20_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A20_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A49EC9A5-2953-4ADA-BEFE-C47EB64793EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2C91613-C979-430B-9537-6C2D3880F214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2FAE0896-B27B-4C1C-B6C9-9061132C464B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A18783F6-929E-44E5-8496-6065A6647B74}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="183">
   <si>
     <t>Población según si ha consumido medicamentos para la alteración del tiroides en 2007 (Tasa respuesta: 49,79%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -80,13 +80,13 @@
     <t>0%</t>
   </si>
   <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
   </si>
   <si>
     <t>No</t>
@@ -95,90 +95,69 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>96,96%</t>
+    <t>99,52%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
   </si>
   <si>
     <t>0,33%</t>
   </si>
   <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
   </si>
   <si>
     <t>99,67%</t>
   </si>
   <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
     <t>99,53%</t>
   </si>
   <si>
@@ -209,478 +188,406 @@
     <t>Población según si ha consumido medicamentos para la alteración del tiroides en 2012 (Tasa respuesta: 39,99%)</t>
   </si>
   <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido medicamentos para la alteración del tiroides en 2016 (Tasa respuesta: 43,19%)</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido medicamentos para la alteración del tiroides en 2023 (Tasa respuesta: 99,89%)</t>
   </si>
   <si>
     <t>1,1%</t>
   </si>
   <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
   </si>
   <si>
     <t>98,9%</t>
   </si>
   <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido medicamentos para la alteración del tiroides en 2016 (Tasa respuesta: 43,19%)</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido medicamentos para la alteración del tiroides en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
   </si>
   <si>
     <t>95,71%</t>
   </si>
   <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
   </si>
   <si>
     <t>0,98%</t>
   </si>
   <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
   </si>
   <si>
     <t>99,02%</t>
   </si>
   <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
   </si>
   <si>
     <t>1,96%</t>
   </si>
   <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
   </si>
   <si>
     <t>98,04%</t>
   </si>
   <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
   </si>
 </sst>
 </file>
@@ -1092,8 +999,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C374378F-F814-488C-AB90-DCBB1A2DEBB5}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE6565D-D856-4C75-B44C-E0E7C41294AF}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1261,10 +1168,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>62</v>
+        <v>397</v>
       </c>
       <c r="D5" s="7">
-        <v>69473</v>
+        <v>410208</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1276,10 +1183,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>44</v>
+        <v>294</v>
       </c>
       <c r="I5" s="7">
-        <v>39334</v>
+        <v>294191</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
@@ -1291,10 +1198,10 @@
         <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>106</v>
+        <v>691</v>
       </c>
       <c r="N5" s="7">
-        <v>108808</v>
+        <v>704398</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
@@ -1312,10 +1219,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>62</v>
+        <v>397</v>
       </c>
       <c r="D6" s="7">
-        <v>69473</v>
+        <v>410208</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -1327,10 +1234,10 @@
         <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>44</v>
+        <v>294</v>
       </c>
       <c r="I6" s="7">
-        <v>39334</v>
+        <v>294191</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -1342,10 +1249,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>106</v>
+        <v>691</v>
       </c>
       <c r="N6" s="7">
-        <v>108808</v>
+        <v>704398</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -1416,10 +1323,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>335</v>
+        <v>515</v>
       </c>
       <c r="D8" s="7">
-        <v>340735</v>
+        <v>564275</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
@@ -1431,10 +1338,10 @@
         <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>250</v>
+        <v>372</v>
       </c>
       <c r="I8" s="7">
-        <v>254856</v>
+        <v>394929</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
@@ -1446,10 +1353,10 @@
         <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>585</v>
+        <v>887</v>
       </c>
       <c r="N8" s="7">
-        <v>595591</v>
+        <v>959204</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
@@ -1467,10 +1374,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>335</v>
+        <v>515</v>
       </c>
       <c r="D9" s="7">
-        <v>340735</v>
+        <v>564275</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -1482,10 +1389,10 @@
         <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>250</v>
+        <v>372</v>
       </c>
       <c r="I9" s="7">
-        <v>254856</v>
+        <v>394929</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1497,10 +1404,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>585</v>
+        <v>887</v>
       </c>
       <c r="N9" s="7">
-        <v>595591</v>
+        <v>959204</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -1562,7 +1469,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1571,46 +1478,46 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>515</v>
+        <v>385</v>
       </c>
       <c r="D11" s="7">
-        <v>564275</v>
+        <v>414284</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>372</v>
+        <v>292</v>
       </c>
       <c r="I11" s="7">
-        <v>394929</v>
+        <v>288056</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>887</v>
+        <v>677</v>
       </c>
       <c r="N11" s="7">
-        <v>959204</v>
+        <v>702340</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -1622,10 +1529,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>515</v>
+        <v>385</v>
       </c>
       <c r="D12" s="7">
-        <v>564275</v>
+        <v>414284</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -1637,10 +1544,10 @@
         <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>372</v>
+        <v>292</v>
       </c>
       <c r="I12" s="7">
-        <v>394929</v>
+        <v>288056</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -1652,10 +1559,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>887</v>
+        <v>677</v>
       </c>
       <c r="N12" s="7">
-        <v>959204</v>
+        <v>702340</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -1669,7 +1576,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1687,7 +1594,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1702,7 +1609,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -1717,7 +1624,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1726,46 +1633,46 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>385</v>
+        <v>581</v>
       </c>
       <c r="D14" s="7">
-        <v>414284</v>
+        <v>558896</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>292</v>
+        <v>406</v>
       </c>
       <c r="I14" s="7">
-        <v>288056</v>
+        <v>422547</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>677</v>
+        <v>987</v>
       </c>
       <c r="N14" s="7">
-        <v>702340</v>
+        <v>981442</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -1777,10 +1684,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>385</v>
+        <v>581</v>
       </c>
       <c r="D15" s="7">
-        <v>414284</v>
+        <v>558896</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -1792,10 +1699,10 @@
         <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>292</v>
+        <v>406</v>
       </c>
       <c r="I15" s="7">
-        <v>288056</v>
+        <v>422547</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1807,10 +1714,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>677</v>
+        <v>987</v>
       </c>
       <c r="N15" s="7">
-        <v>702340</v>
+        <v>981442</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -1824,7 +1731,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1842,7 +1749,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1857,7 +1764,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -1872,7 +1779,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1881,46 +1788,46 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>581</v>
+        <v>1878</v>
       </c>
       <c r="D17" s="7">
-        <v>558896</v>
+        <v>1947662</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>406</v>
+        <v>1364</v>
       </c>
       <c r="I17" s="7">
-        <v>422547</v>
+        <v>1399722</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M17" s="7">
-        <v>987</v>
+        <v>3242</v>
       </c>
       <c r="N17" s="7">
-        <v>981442</v>
+        <v>3347384</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -1932,10 +1839,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>581</v>
+        <v>1878</v>
       </c>
       <c r="D18" s="7">
-        <v>558896</v>
+        <v>1947662</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -1947,10 +1854,10 @@
         <v>19</v>
       </c>
       <c r="H18" s="7">
-        <v>406</v>
+        <v>1364</v>
       </c>
       <c r="I18" s="7">
-        <v>422547</v>
+        <v>1399722</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -1962,10 +1869,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>987</v>
+        <v>3242</v>
       </c>
       <c r="N18" s="7">
-        <v>981442</v>
+        <v>3347384</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -1978,171 +1885,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1878</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1947662</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1364</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1399722</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3242</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3347384</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1878</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1947662</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1364</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1399722</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>3242</v>
-      </c>
-      <c r="N21" s="7">
-        <v>3347384</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>54</v>
+      <c r="A19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2155,8 +1906,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{760D2EE9-E9A2-4894-8EFE-80E1C602DB64}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A4486E-3963-4A31-8564-AC58C0C6FB3C}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2172,7 +1923,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2285,7 +2036,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2300,7 +2051,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2315,7 +2066,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2324,46 +2075,46 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>61</v>
+        <v>329</v>
       </c>
       <c r="D5" s="7">
-        <v>56636</v>
+        <v>334975</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>29</v>
+        <v>202</v>
       </c>
       <c r="I5" s="7">
-        <v>33246</v>
+        <v>218325</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>90</v>
+        <v>531</v>
       </c>
       <c r="N5" s="7">
-        <v>89882</v>
+        <v>553300</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2375,10 +2126,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>61</v>
+        <v>329</v>
       </c>
       <c r="D6" s="7">
-        <v>56636</v>
+        <v>334975</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -2390,10 +2141,10 @@
         <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>29</v>
+        <v>202</v>
       </c>
       <c r="I6" s="7">
-        <v>33246</v>
+        <v>218325</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -2405,10 +2156,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>90</v>
+        <v>531</v>
       </c>
       <c r="N6" s="7">
-        <v>89882</v>
+        <v>553300</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -2440,7 +2191,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2455,7 +2206,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -2470,7 +2221,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2479,46 +2230,46 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>268</v>
+        <v>470</v>
       </c>
       <c r="D8" s="7">
-        <v>278339</v>
+        <v>508628</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>173</v>
+        <v>276</v>
       </c>
       <c r="I8" s="7">
-        <v>185080</v>
+        <v>299920</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>441</v>
+        <v>746</v>
       </c>
       <c r="N8" s="7">
-        <v>463418</v>
+        <v>808548</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -2530,10 +2281,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>268</v>
+        <v>470</v>
       </c>
       <c r="D9" s="7">
-        <v>278339</v>
+        <v>508628</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -2545,10 +2296,10 @@
         <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>173</v>
+        <v>276</v>
       </c>
       <c r="I9" s="7">
-        <v>185080</v>
+        <v>299920</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -2560,10 +2311,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>441</v>
+        <v>746</v>
       </c>
       <c r="N9" s="7">
-        <v>463418</v>
+        <v>808548</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -2595,7 +2346,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2610,7 +2361,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2625,7 +2376,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2634,46 +2385,46 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>470</v>
+        <v>368</v>
       </c>
       <c r="D11" s="7">
-        <v>508628</v>
+        <v>396051</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>276</v>
+        <v>230</v>
       </c>
       <c r="I11" s="7">
-        <v>299920</v>
+        <v>249926</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>746</v>
+        <v>598</v>
       </c>
       <c r="N11" s="7">
-        <v>808548</v>
+        <v>645977</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -2685,10 +2436,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>470</v>
+        <v>368</v>
       </c>
       <c r="D12" s="7">
-        <v>508628</v>
+        <v>396051</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -2700,10 +2451,10 @@
         <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>276</v>
+        <v>230</v>
       </c>
       <c r="I12" s="7">
-        <v>299920</v>
+        <v>249926</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -2715,10 +2466,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>746</v>
+        <v>598</v>
       </c>
       <c r="N12" s="7">
-        <v>808548</v>
+        <v>645977</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -2732,7 +2483,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2750,7 +2501,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2765,7 +2516,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -2780,7 +2531,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2789,46 +2540,46 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>368</v>
+        <v>451</v>
       </c>
       <c r="D14" s="7">
-        <v>396051</v>
+        <v>457117</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>230</v>
+        <v>276</v>
       </c>
       <c r="I14" s="7">
-        <v>249926</v>
+        <v>290466</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>598</v>
+        <v>727</v>
       </c>
       <c r="N14" s="7">
-        <v>645977</v>
+        <v>747583</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -2840,10 +2591,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>368</v>
+        <v>451</v>
       </c>
       <c r="D15" s="7">
-        <v>396051</v>
+        <v>457117</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -2855,10 +2606,10 @@
         <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>230</v>
+        <v>276</v>
       </c>
       <c r="I15" s="7">
-        <v>249926</v>
+        <v>290466</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -2870,10 +2621,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>598</v>
+        <v>727</v>
       </c>
       <c r="N15" s="7">
-        <v>645977</v>
+        <v>747583</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -2887,7 +2638,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2905,7 +2656,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2920,7 +2671,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2944,46 +2695,46 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>451</v>
+        <v>1618</v>
       </c>
       <c r="D17" s="7">
-        <v>457117</v>
+        <v>1696771</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>276</v>
+        <v>984</v>
       </c>
       <c r="I17" s="7">
-        <v>290466</v>
+        <v>1058637</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M17" s="7">
-        <v>727</v>
+        <v>2602</v>
       </c>
       <c r="N17" s="7">
-        <v>747583</v>
+        <v>2755408</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -2995,10 +2746,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>451</v>
+        <v>1618</v>
       </c>
       <c r="D18" s="7">
-        <v>457117</v>
+        <v>1696771</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -3010,10 +2761,10 @@
         <v>19</v>
       </c>
       <c r="H18" s="7">
-        <v>276</v>
+        <v>984</v>
       </c>
       <c r="I18" s="7">
-        <v>290466</v>
+        <v>1058637</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -3025,10 +2776,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>727</v>
+        <v>2602</v>
       </c>
       <c r="N18" s="7">
-        <v>747583</v>
+        <v>2755408</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -3041,171 +2792,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1618</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1696771</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="7">
-        <v>984</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1058638</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="7" t="s">
+      <c r="A19" t="s">
         <v>47</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2602</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2755408</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1618</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1696771</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>984</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1058638</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2602</v>
-      </c>
-      <c r="N21" s="7">
-        <v>2755408</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>54</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3218,8 +2813,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A458AC-10F8-42A3-8BF5-35AB327F100C}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{281A6841-245A-4A40-82F2-A65CE137341B}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3235,7 +2830,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3348,7 +2943,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3363,7 +2958,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3378,7 +2973,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3387,46 +2982,46 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>55</v>
+        <v>322</v>
       </c>
       <c r="D5" s="7">
-        <v>57524</v>
+        <v>335947</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>36</v>
+        <v>226</v>
       </c>
       <c r="I5" s="7">
-        <v>33014</v>
+        <v>217593</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>91</v>
+        <v>548</v>
       </c>
       <c r="N5" s="7">
-        <v>90539</v>
+        <v>553540</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -3438,10 +3033,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>55</v>
+        <v>322</v>
       </c>
       <c r="D6" s="7">
-        <v>57524</v>
+        <v>335947</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -3453,10 +3048,10 @@
         <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>36</v>
+        <v>226</v>
       </c>
       <c r="I6" s="7">
-        <v>33014</v>
+        <v>217593</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -3468,10 +3063,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>91</v>
+        <v>548</v>
       </c>
       <c r="N6" s="7">
-        <v>90539</v>
+        <v>553540</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -3503,7 +3098,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3518,7 +3113,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3533,7 +3128,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3542,46 +3137,46 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>267</v>
+        <v>484</v>
       </c>
       <c r="D8" s="7">
-        <v>278423</v>
+        <v>522165</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>190</v>
+        <v>355</v>
       </c>
       <c r="I8" s="7">
-        <v>184579</v>
+        <v>361569</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>457</v>
+        <v>839</v>
       </c>
       <c r="N8" s="7">
-        <v>463001</v>
+        <v>883734</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -3593,10 +3188,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>267</v>
+        <v>484</v>
       </c>
       <c r="D9" s="7">
-        <v>278423</v>
+        <v>522165</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -3608,10 +3203,10 @@
         <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>190</v>
+        <v>355</v>
       </c>
       <c r="I9" s="7">
-        <v>184579</v>
+        <v>361569</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3623,10 +3218,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>457</v>
+        <v>839</v>
       </c>
       <c r="N9" s="7">
-        <v>463001</v>
+        <v>883734</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -3658,7 +3253,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3673,7 +3268,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3688,7 +3283,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3697,46 +3292,46 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>484</v>
+        <v>370</v>
       </c>
       <c r="D11" s="7">
-        <v>522165</v>
+        <v>406976</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>355</v>
+        <v>297</v>
       </c>
       <c r="I11" s="7">
-        <v>361569</v>
+        <v>303996</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>839</v>
+        <v>667</v>
       </c>
       <c r="N11" s="7">
-        <v>883734</v>
+        <v>710972</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -3748,10 +3343,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>484</v>
+        <v>370</v>
       </c>
       <c r="D12" s="7">
-        <v>522165</v>
+        <v>406976</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -3763,10 +3358,10 @@
         <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>355</v>
+        <v>297</v>
       </c>
       <c r="I12" s="7">
-        <v>361569</v>
+        <v>303996</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3778,10 +3373,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>839</v>
+        <v>667</v>
       </c>
       <c r="N12" s="7">
-        <v>883734</v>
+        <v>710972</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -3795,7 +3390,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3813,7 +3408,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3828,7 +3423,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3843,7 +3438,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3852,46 +3447,46 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>370</v>
+        <v>434</v>
       </c>
       <c r="D14" s="7">
-        <v>406976</v>
+        <v>439273</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>297</v>
+        <v>349</v>
       </c>
       <c r="I14" s="7">
-        <v>303996</v>
+        <v>362767</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>667</v>
+        <v>783</v>
       </c>
       <c r="N14" s="7">
-        <v>710972</v>
+        <v>802040</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -3903,10 +3498,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>370</v>
+        <v>434</v>
       </c>
       <c r="D15" s="7">
-        <v>406976</v>
+        <v>439273</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -3918,10 +3513,10 @@
         <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>297</v>
+        <v>349</v>
       </c>
       <c r="I15" s="7">
-        <v>303996</v>
+        <v>362767</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3933,10 +3528,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>667</v>
+        <v>783</v>
       </c>
       <c r="N15" s="7">
-        <v>710972</v>
+        <v>802040</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -3950,7 +3545,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3968,7 +3563,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3983,7 +3578,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3998,7 +3593,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4007,46 +3602,46 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>434</v>
+        <v>1610</v>
       </c>
       <c r="D17" s="7">
-        <v>439273</v>
+        <v>1704362</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>349</v>
+        <v>1227</v>
       </c>
       <c r="I17" s="7">
-        <v>362767</v>
+        <v>1245925</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M17" s="7">
-        <v>783</v>
+        <v>2837</v>
       </c>
       <c r="N17" s="7">
-        <v>802040</v>
+        <v>2950287</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -4058,10 +3653,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>434</v>
+        <v>1610</v>
       </c>
       <c r="D18" s="7">
-        <v>439273</v>
+        <v>1704362</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -4073,10 +3668,10 @@
         <v>19</v>
       </c>
       <c r="H18" s="7">
-        <v>349</v>
+        <v>1227</v>
       </c>
       <c r="I18" s="7">
-        <v>362767</v>
+        <v>1245925</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -4088,10 +3683,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>783</v>
+        <v>2837</v>
       </c>
       <c r="N18" s="7">
-        <v>802040</v>
+        <v>2950287</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -4104,171 +3699,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1610</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1704362</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1227</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1245925</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2837</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2950287</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1610</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1704362</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1227</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1245925</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2837</v>
-      </c>
-      <c r="N21" s="7">
-        <v>2950287</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>54</v>
+      <c r="A19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4281,8 +3720,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFCDC2A7-27EE-4D30-82A6-D24C3BAAAB4F}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B877C8A-D53D-4921-AC4B-6ACC8CC5DA7B}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4298,7 +3737,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4399,49 +3838,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>6972</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="H4" s="7">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="I4" s="7">
-        <v>11496</v>
+        <v>60512</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="M4" s="7">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="N4" s="7">
-        <v>11496</v>
+        <v>67484</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4450,49 +3889,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>118</v>
+        <v>719</v>
       </c>
       <c r="D5" s="7">
-        <v>101982</v>
+        <v>628469</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="H5" s="7">
-        <v>220</v>
+        <v>1124</v>
       </c>
       <c r="I5" s="7">
-        <v>119237</v>
+        <v>615240</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="M5" s="7">
-        <v>338</v>
+        <v>1843</v>
       </c>
       <c r="N5" s="7">
-        <v>221219</v>
+        <v>1243710</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4501,10 +3940,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -4516,10 +3955,10 @@
         <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1239</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>675752</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -4531,10 +3970,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>361</v>
+        <v>1969</v>
       </c>
       <c r="N6" s="7">
-        <v>232715</v>
+        <v>1311194</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -4554,49 +3993,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D7" s="7">
-        <v>7623</v>
+        <v>13061</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="H7" s="7">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="I7" s="7">
-        <v>53347</v>
+        <v>77153</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="M7" s="7">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="N7" s="7">
-        <v>60971</v>
+        <v>90214</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4605,49 +4044,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>601</v>
+        <v>950</v>
       </c>
       <c r="D8" s="7">
-        <v>542200</v>
+        <v>1179803</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="H8" s="7">
-        <v>904</v>
+        <v>1378</v>
       </c>
       <c r="I8" s="7">
-        <v>539615</v>
+        <v>880596</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="M8" s="7">
-        <v>1505</v>
+        <v>2328</v>
       </c>
       <c r="N8" s="7">
-        <v>1081814</v>
+        <v>2060399</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4656,10 +4095,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -4671,10 +4110,10 @@
         <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>996</v>
+        <v>1515</v>
       </c>
       <c r="I9" s="7">
-        <v>592962</v>
+        <v>957749</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -4686,10 +4125,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>1608</v>
+        <v>2479</v>
       </c>
       <c r="N9" s="7">
-        <v>1142785</v>
+        <v>2150613</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -4709,49 +4148,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>13949</v>
+        <v>6906</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="H10" s="7">
+        <v>91</v>
+      </c>
+      <c r="I10" s="7">
+        <v>258882</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="I10" s="7">
-        <v>84150</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>151</v>
-      </c>
       <c r="M10" s="7">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="N10" s="7">
-        <v>98098</v>
+        <v>265788</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4760,49 +4199,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>950</v>
+        <v>667</v>
       </c>
       <c r="D11" s="7">
-        <v>1025299</v>
+        <v>696778</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>157</v>
+        <v>83</v>
       </c>
       <c r="H11" s="7">
-        <v>1378</v>
+        <v>954</v>
       </c>
       <c r="I11" s="7">
-        <v>974933</v>
+        <v>673271</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="M11" s="7">
-        <v>2328</v>
+        <v>1621</v>
       </c>
       <c r="N11" s="7">
-        <v>2000233</v>
+        <v>1370049</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4811,10 +4250,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>675</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>703684</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -4826,10 +4265,10 @@
         <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>1515</v>
+        <v>1045</v>
       </c>
       <c r="I12" s="7">
-        <v>1059083</v>
+        <v>932153</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -4841,10 +4280,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>2479</v>
+        <v>1720</v>
       </c>
       <c r="N12" s="7">
-        <v>2098331</v>
+        <v>1635837</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -4858,55 +4297,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D13" s="7">
-        <v>7129</v>
+        <v>18184</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>97</v>
+        <v>150</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="H13" s="7">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="I13" s="7">
-        <v>169882</v>
+        <v>89707</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="M13" s="7">
-        <v>99</v>
+        <v>163</v>
       </c>
       <c r="N13" s="7">
-        <v>177011</v>
+        <v>107891</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4915,49 +4354,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>667</v>
+        <v>988</v>
       </c>
       <c r="D14" s="7">
-        <v>720572</v>
+        <v>908647</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="H14" s="7">
-        <v>954</v>
+        <v>1414</v>
       </c>
       <c r="I14" s="7">
-        <v>703144</v>
+        <v>1001667</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="M14" s="7">
-        <v>1621</v>
+        <v>2402</v>
       </c>
       <c r="N14" s="7">
-        <v>1423716</v>
+        <v>1910314</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4966,10 +4405,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>675</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="7">
-        <v>727701</v>
+        <v>926831</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -4981,10 +4420,10 @@
         <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>1045</v>
+        <v>1559</v>
       </c>
       <c r="I15" s="7">
-        <v>873026</v>
+        <v>1091374</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -4996,10 +4435,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>1720</v>
+        <v>2565</v>
       </c>
       <c r="N15" s="7">
-        <v>1600727</v>
+        <v>2018205</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -5013,55 +4452,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="D16" s="7">
-        <v>18893</v>
+        <v>45124</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="H16" s="7">
-        <v>145</v>
+        <v>488</v>
       </c>
       <c r="I16" s="7">
-        <v>100679</v>
+        <v>486253</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="M16" s="7">
-        <v>163</v>
+        <v>539</v>
       </c>
       <c r="N16" s="7">
-        <v>119572</v>
+        <v>531377</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5070,49 +4509,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>988</v>
+        <v>3324</v>
       </c>
       <c r="D17" s="7">
-        <v>946510</v>
+        <v>3413696</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="H17" s="7">
-        <v>1414</v>
+        <v>4870</v>
       </c>
       <c r="I17" s="7">
-        <v>1045624</v>
+        <v>3170775</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="M17" s="7">
-        <v>2402</v>
+        <v>8194</v>
       </c>
       <c r="N17" s="7">
-        <v>1992134</v>
+        <v>6584471</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5121,10 +4560,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1006</v>
+        <v>3375</v>
       </c>
       <c r="D18" s="7">
-        <v>965403</v>
+        <v>3458820</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -5136,10 +4575,10 @@
         <v>19</v>
       </c>
       <c r="H18" s="7">
-        <v>1559</v>
+        <v>5358</v>
       </c>
       <c r="I18" s="7">
-        <v>1146303</v>
+        <v>3657028</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -5151,10 +4590,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>2565</v>
+        <v>8733</v>
       </c>
       <c r="N18" s="7">
-        <v>2111706</v>
+        <v>7115848</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -5167,171 +4606,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>51</v>
-      </c>
-      <c r="D19" s="7">
-        <v>47594</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="H19" s="7">
-        <v>488</v>
-      </c>
-      <c r="I19" s="7">
-        <v>419554</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="M19" s="7">
-        <v>539</v>
-      </c>
-      <c r="N19" s="7">
-        <v>467148</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3324</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3336564</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4870</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3382553</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="M20" s="7">
-        <v>8194</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6719116</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3375</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3384158</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5358</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3802107</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8733</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7186264</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>54</v>
+      <c r="A19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
